--- a/xunit/report/New Patterns Count.xlsx
+++ b/xunit/report/New Patterns Count.xlsx
@@ -296,8 +296,8 @@
           <c:yMode val="edge"/>
           <c:x val="6.0529008500803068E-2"/>
           <c:y val="4.1234984902653184E-2"/>
-          <c:w val="0.81631778117287579"/>
-          <c:h val="0.70328924761842093"/>
+          <c:w val="0.81631778117287568"/>
+          <c:h val="0.70328924761842104"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -314,7 +314,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9800995024875984E-3"/>
+                  <c:x val="3.9800995024876001E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -324,7 +324,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.990049751243781E-3"/>
+                  <c:x val="1.9900497512437818E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -335,7 +335,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.7140204271123488E-2"/>
+                  <c:y val="-3.7140204271123495E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -345,7 +345,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0">
+                  <a:defRPr b="1">
                     <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
                   </a:defRPr>
@@ -438,7 +438,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.990049751243781E-3"/>
+                  <c:x val="1.9900497512437818E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -473,7 +473,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
+                  <a:defRPr b="1">
                     <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
                   </a:defRPr>
@@ -556,26 +556,39 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="99862784"/>
-        <c:axId val="117434624"/>
+        <c:axId val="66374656"/>
+        <c:axId val="66384640"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="99862784"/>
+        <c:axId val="66374656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117434624"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66384640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117434624"/>
+        <c:axId val="66384640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +596,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99862784"/>
+        <c:crossAx val="66374656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -591,12 +604,25 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -606,16 +632,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67408</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>233729</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93784</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -924,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="B20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1593,47 +1619,47 @@
         <v>32</v>
       </c>
       <c r="B13" s="22">
-        <f ca="1">SUM(B3:B18)</f>
+        <f t="shared" ref="B13:L13" ca="1" si="4">SUM(B3:B18)</f>
         <v>3</v>
       </c>
       <c r="C13" s="22">
-        <f ca="1">SUM(C3:C18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>57</v>
       </c>
       <c r="D13" s="22">
-        <f ca="1">SUM(D3:D18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="E13" s="22">
-        <f ca="1">SUM(E3:E18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="F13" s="22">
-        <f ca="1">SUM(F3:F18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="G13" s="22">
-        <f ca="1">SUM(G3:G18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
       <c r="H13" s="22">
-        <f ca="1">SUM(H3:H18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="I13" s="22">
-        <f ca="1">SUM(I3:I18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="J13" s="20">
-        <f ca="1">SUM(J3:J18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>12</v>
       </c>
       <c r="K13" s="22">
-        <f ca="1">SUM(K3:K18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>90</v>
       </c>
       <c r="L13" s="22">
-        <f ca="1">SUM(L3:L18)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>88</v>
       </c>
     </row>
@@ -1778,43 +1804,43 @@
         <v>2</v>
       </c>
       <c r="C20" s="22">
-        <f t="shared" ref="C20:L20" si="4">SUM(C15:C18)</f>
+        <f t="shared" ref="C20:L20" si="5">SUM(C15:C18)</f>
         <v>14</v>
       </c>
       <c r="D20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="H20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J20" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -1827,43 +1853,43 @@
         <v>5</v>
       </c>
       <c r="C22" s="22">
-        <f t="shared" ref="C22:L22" si="5">SUM(C3:C11,C15:C18)</f>
+        <f t="shared" ref="C22:L22" si="6">SUM(C3:C11,C15:C18)</f>
         <v>65</v>
       </c>
       <c r="D22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="H22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J22" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="K22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="L22" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
     </row>

--- a/xunit/report/New Patterns Count.xlsx
+++ b/xunit/report/New Patterns Count.xlsx
@@ -296,8 +296,8 @@
           <c:yMode val="edge"/>
           <c:x val="6.0529008500803068E-2"/>
           <c:y val="4.1234984902653184E-2"/>
-          <c:w val="0.81631778117287568"/>
-          <c:h val="0.70328924761842104"/>
+          <c:w val="0.81631778117287557"/>
+          <c:h val="0.70328924761842115"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -314,7 +314,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9800995024876001E-3"/>
+                  <c:x val="3.980099502487601E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -324,7 +324,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437818E-3"/>
+                  <c:x val="1.9900497512437827E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -335,7 +335,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.7140204271123495E-2"/>
+                  <c:y val="-3.7140204271123502E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -438,7 +438,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437818E-3"/>
+                  <c:x val="1.9900497512437827E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -556,12 +556,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="66374656"/>
-        <c:axId val="66384640"/>
+        <c:axId val="75152384"/>
+        <c:axId val="75162368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66374656"/>
+        <c:axId val="75152384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,14 +581,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66384640"/>
+        <c:crossAx val="75162368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66384640"/>
+        <c:axId val="75162368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +596,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66374656"/>
+        <c:crossAx val="75152384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -622,7 +622,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>

--- a/xunit/report/New Patterns Count.xlsx
+++ b/xunit/report/New Patterns Count.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -297,7 +297,7 @@
           <c:x val="6.0529008500803068E-2"/>
           <c:y val="4.1234984902653184E-2"/>
           <c:w val="0.81631778117287557"/>
-          <c:h val="0.70328924761842115"/>
+          <c:h val="0.70328924761842126"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -314,7 +314,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.980099502487601E-3"/>
+                  <c:x val="3.9800995024876018E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -324,7 +324,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437827E-3"/>
+                  <c:x val="1.9900497512437831E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -335,7 +335,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.7140204271123502E-2"/>
+                  <c:y val="-3.7140204271123509E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -438,7 +438,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437827E-3"/>
+                  <c:x val="1.9900497512437831E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -528,7 +528,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -540,7 +540,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -556,12 +556,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="75152384"/>
-        <c:axId val="75162368"/>
+        <c:axId val="79968512"/>
+        <c:axId val="79978496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75152384"/>
+        <c:axId val="79968512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,14 +581,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75162368"/>
+        <c:crossAx val="79978496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75162368"/>
+        <c:axId val="79978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +596,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75152384"/>
+        <c:crossAx val="79968512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -622,7 +622,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="B20:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1768,20 +1768,20 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
         <f>SUM(B18:I18)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="3"/>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C20" s="22">
         <f t="shared" ref="C20:L20" si="5">SUM(C15:C18)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D20" s="22">
         <f t="shared" si="5"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="G20" s="22">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="22">
         <f t="shared" si="5"/>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="L20" s="22">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="22" customFormat="1">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C22" s="22">
         <f t="shared" ref="C22:L22" si="6">SUM(C3:C11,C15:C18)</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D22" s="22">
         <f t="shared" si="6"/>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="6"/>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="L22" s="22">
         <f t="shared" si="6"/>
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/xunit/report/New Patterns Count.xlsx
+++ b/xunit/report/New Patterns Count.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>CUTCov</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>TOTAL Final</t>
+  </si>
+  <si>
+    <t>EmptyTest.cs</t>
   </si>
 </sst>
 </file>
@@ -294,10 +297,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.0529008500803068E-2"/>
-          <c:y val="4.1234984902653184E-2"/>
-          <c:w val="0.81631778117287557"/>
-          <c:h val="0.70328924761842126"/>
+          <c:x val="4.8438048915433199E-2"/>
+          <c:y val="4.8644110858343297E-2"/>
+          <c:w val="0.77659013511879593"/>
+          <c:h val="0.69588016335950498"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -307,14 +310,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Midterm</c:v>
+            <c:v>Test Generalization</c:v>
           </c:tx>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9800995024876018E-3"/>
+                  <c:x val="3.9800995024876027E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -324,7 +327,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437831E-3"/>
+                  <c:x val="1.9900497512437836E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -335,7 +338,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.7140204271123509E-2"/>
+                  <c:y val="-3.7140204271123516E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -400,7 +403,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -412,7 +415,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5</c:v>
@@ -431,18 +434,22 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>New</c:v>
+            <c:v>New PUTs</c:v>
           </c:tx>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437831E-3"/>
+                  <c:x val="1.9900497512437836E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -458,7 +465,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:delete val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7272878982265651E-3"/>
+                  <c:y val="-3.3340460355042359E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -528,7 +541,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -540,10 +553,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -556,12 +569,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="79968512"/>
-        <c:axId val="79978496"/>
+        <c:axId val="66567168"/>
+        <c:axId val="66577152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="79968512"/>
+        <c:axId val="66567168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,14 +594,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79978496"/>
+        <c:crossAx val="66577152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79978496"/>
+        <c:axId val="66577152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,14 +609,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79968512"/>
+        <c:crossAx val="66567168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79282269716141318"/>
+          <c:y val="0.30713185408254373"/>
+          <c:w val="0.20465698055443471"/>
+          <c:h val="0.12642130849201652"/>
+        </c:manualLayout>
+      </c:layout>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -622,7 +644,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -632,16 +654,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67408</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>94517</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>143608</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>233729</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>93784</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160459</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -950,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1094,7 +1116,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
@@ -1107,8 +1129,8 @@
         <v>45</v>
       </c>
       <c r="L3" s="1">
-        <f>SUM(B3:I3)</f>
-        <v>42</v>
+        <f>SUM(B3:G3)</f>
+        <v>34</v>
       </c>
       <c r="M3" s="4">
         <v>0.96099999999999997</v>
@@ -1167,7 +1189,6 @@
         <v>2</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L11" si="0">SUM(B4:I4)</f>
         <v>2</v>
       </c>
       <c r="M4" s="4">
@@ -1189,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" ref="S4:S11" si="1">Q4/R4</f>
+        <f t="shared" ref="S4:S11" si="0">Q4/R4</f>
         <v>1</v>
       </c>
       <c r="T4" s="3">
@@ -1203,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" ref="W4:W11" si="2">V4-S4</f>
+        <f t="shared" ref="W4:W11" si="1">V4-S4</f>
         <v>0</v>
       </c>
     </row>
@@ -1229,8 +1250,8 @@
         <v>9</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(B5:G5)</f>
+        <v>9</v>
       </c>
       <c r="M5" s="4">
         <v>0.61899999999999999</v>
@@ -1251,7 +1272,7 @@
         <v>84</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="T5" s="3">
@@ -1265,7 +1286,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.29761904761904756</v>
       </c>
     </row>
@@ -1291,8 +1312,8 @@
         <v>9</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(B6:G6)</f>
+        <v>9</v>
       </c>
       <c r="M6" s="4">
         <v>0.60709999999999997</v>
@@ -1313,7 +1334,7 @@
         <v>84</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.6071428571428571</v>
       </c>
       <c r="T6" s="3">
@@ -1323,11 +1344,11 @@
         <v>84</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" ref="V6:V11" si="3">T6/U6</f>
+        <f t="shared" ref="V6:V11" si="2">T6/U6</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.30952380952380953</v>
       </c>
     </row>
@@ -1354,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L4:L11" si="3">SUM(B7:I7)</f>
         <v>3</v>
       </c>
       <c r="M7" s="4">
@@ -1376,7 +1397,7 @@
         <v>26</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="T7" s="3">
@@ -1386,11 +1407,11 @@
         <v>26</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
@@ -1413,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8" s="7">
@@ -1429,17 +1450,17 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W8" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1449,13 +1470,13 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1463,8 +1484,8 @@
         <v>7</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(B9:G9)</f>
+        <v>3</v>
       </c>
       <c r="M9" s="4">
         <v>0.43059999999999998</v>
@@ -1485,7 +1506,7 @@
         <v>72</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
       </c>
       <c r="T9" s="3">
@@ -1495,11 +1516,11 @@
         <v>72</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.90277777777777779</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.47222222222222221</v>
       </c>
     </row>
@@ -1522,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10" s="7">
@@ -1538,17 +1559,17 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W10" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1558,13 +1579,13 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1">
@@ -1574,8 +1595,8 @@
         <v>9</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(B11:G11)</f>
+        <v>7</v>
       </c>
       <c r="M11" s="4">
         <v>0.91669999999999996</v>
@@ -1596,7 +1617,7 @@
         <v>48</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="T11" s="3">
@@ -1606,11 +1627,11 @@
         <v>48</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1619,19 +1640,19 @@
         <v>32</v>
       </c>
       <c r="B13" s="22">
-        <f t="shared" ref="B13:L13" ca="1" si="4">SUM(B3:B18)</f>
+        <f>SUM(B3:B11)</f>
         <v>3</v>
       </c>
       <c r="C13" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <f>SUM(C3:C11)</f>
+        <v>45</v>
       </c>
       <c r="D13" s="22">
-        <f t="shared" ca="1" si="4"/>
+        <f>SUM(D3:D11)</f>
         <v>1</v>
       </c>
       <c r="E13" s="22">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="B13:L13" ca="1" si="4">SUM(E3:E18)</f>
         <v>1</v>
       </c>
       <c r="F13" s="22">
@@ -1639,15 +1660,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>22</v>
+        <f>SUM(G3:G11)</f>
+        <v>16</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" ca="1" si="4"/>
+        <f>SUM(H3:H11)</f>
         <v>5</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" ca="1" si="4"/>
+        <f>SUM(I3:I11)</f>
         <v>5</v>
       </c>
       <c r="J13" s="20">
@@ -1659,8 +1680,8 @@
         <v>90</v>
       </c>
       <c r="L13" s="22">
-        <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <f>SUM(L3:L11)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75">
@@ -1668,21 +1689,21 @@
         <v>25</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <f>SUM(B15:I15)</f>
-        <v>10</v>
+        <f>SUM(B15:G15)</f>
+        <v>5</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="3"/>
@@ -1701,21 +1722,21 @@
         <v>26</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <f>SUM(B16:I16)</f>
-        <v>8</v>
+        <f>SUM(B16:G16)</f>
+        <v>5</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="3"/>
@@ -1743,12 +1764,14 @@
       <c r="G17" s="1">
         <v>3</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
         <f>SUM(B17:I17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="3"/>
@@ -1795,6 +1818,18 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <f>SUM(B19:I19)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="1:23" s="22" customFormat="1">
       <c r="A20" s="21" t="s">
         <v>31</v>
@@ -1805,7 +1840,7 @@
       </c>
       <c r="C20" s="22">
         <f t="shared" ref="C20:L20" si="5">SUM(C15:C18)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20" s="22">
         <f t="shared" si="5"/>
@@ -1820,12 +1855,12 @@
         <v>0</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f>SUM(G15:G19)</f>
+        <v>14</v>
       </c>
       <c r="H20" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(H15:H18)</f>
+        <v>3</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="5"/>
@@ -1840,8 +1875,8 @@
         <v>0</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f>SUM(B20:G20)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="22" customFormat="1">
@@ -1854,7 +1889,7 @@
       </c>
       <c r="C22" s="22">
         <f t="shared" ref="C22:L22" si="6">SUM(C3:C11,C15:C18)</f>
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D22" s="22">
         <f t="shared" si="6"/>
@@ -1869,12 +1904,12 @@
         <v>1</v>
       </c>
       <c r="G22" s="22">
-        <f t="shared" si="6"/>
-        <v>34</v>
+        <f>SUM(G13,G20)</f>
+        <v>30</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="6"/>
@@ -1889,8 +1924,8 @@
         <v>90</v>
       </c>
       <c r="L22" s="22">
-        <f t="shared" si="6"/>
-        <v>111</v>
+        <f>SUM(B22:G22)</f>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/xunit/report/New Patterns Count.xlsx
+++ b/xunit/report/New Patterns Count.xlsx
@@ -298,9 +298,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.8438048915433199E-2"/>
-          <c:y val="4.8644110858343297E-2"/>
-          <c:w val="0.77659013511879593"/>
-          <c:h val="0.69588016335950498"/>
+          <c:y val="4.8644110858343317E-2"/>
+          <c:w val="0.77659013511879615"/>
+          <c:h val="0.6958801633595052"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -317,7 +317,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9800995024876027E-3"/>
+                  <c:x val="3.9800995024876053E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -327,7 +327,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437836E-3"/>
+                  <c:x val="1.9900497512437849E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -338,7 +338,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.7140204271123516E-2"/>
+                  <c:y val="-3.7140204271123536E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -441,8 +441,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437836E-3"/>
-                  <c:y val="-3.3426183844011144E-2"/>
+                  <c:x val="1.990053269830796E-3"/>
+                  <c:y val="-1.1199244399575646E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -467,8 +467,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.7272878982265651E-3"/>
-                  <c:y val="-3.3340460355042359E-2"/>
+                  <c:x val="0"/>
+                  <c:y val="-3.7044955950047073E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -556,7 +556,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -569,12 +569,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="66567168"/>
-        <c:axId val="66577152"/>
+        <c:axId val="63093760"/>
+        <c:axId val="63103744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66567168"/>
+        <c:axId val="63093760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,14 +594,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66577152"/>
+        <c:crossAx val="63103744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66577152"/>
+        <c:axId val="63103744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +609,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66567168"/>
+        <c:crossAx val="63093760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -620,10 +620,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79282269716141318"/>
-          <c:y val="0.30713185408254373"/>
-          <c:w val="0.20465698055443471"/>
-          <c:h val="0.12642130849201652"/>
+          <c:x val="0.7928226971614134"/>
+          <c:y val="0.30713185408254384"/>
+          <c:w val="0.20465698055443476"/>
+          <c:h val="0.12642130849201658"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -644,7 +644,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -654,16 +654,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>143608</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161192</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>77761</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>116880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>160459</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116147</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1375,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L4:L11" si="3">SUM(B7:I7)</f>
+        <f t="shared" ref="L7:L10" si="3">SUM(B7:I7)</f>
         <v>3</v>
       </c>
       <c r="M7" s="4">
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="22">
-        <f t="shared" ref="B13:L13" ca="1" si="4">SUM(E3:E18)</f>
+        <f t="shared" ref="E13:K13" ca="1" si="4">SUM(E3:E18)</f>
         <v>1</v>
       </c>
       <c r="F13" s="22">
@@ -1697,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1"/>
       <c r="K16" s="1"/>
@@ -1765,13 +1765,13 @@
         <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
         <f>SUM(B17:I17)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="3"/>
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="22">
-        <f t="shared" ref="C20:L20" si="5">SUM(C15:C18)</f>
+        <f t="shared" ref="C20:K20" si="5">SUM(C15:C18)</f>
         <v>0</v>
       </c>
       <c r="D20" s="22">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H20" s="22">
         <f>SUM(H15:H18)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="5"/>
@@ -1888,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="22">
-        <f t="shared" ref="C22:L22" si="6">SUM(C3:C11,C15:C18)</f>
+        <f t="shared" ref="C22:K22" si="6">SUM(C3:C11,C15:C18)</f>
         <v>45</v>
       </c>
       <c r="D22" s="22">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H22" s="22">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="6"/>

--- a/xunit/report/New Patterns Count.xlsx
+++ b/xunit/report/New Patterns Count.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>CUTCov</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>EmptyTest.cs</t>
+  </si>
+  <si>
+    <t>Parameterized Models with behavior</t>
   </si>
 </sst>
 </file>
@@ -298,9 +301,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.8438048915433199E-2"/>
-          <c:y val="4.8644110858343317E-2"/>
-          <c:w val="0.77659013511879615"/>
-          <c:h val="0.6958801633595052"/>
+          <c:y val="4.8644110858343324E-2"/>
+          <c:w val="0.77659013511879627"/>
+          <c:h val="0.69588016335950531"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -317,7 +320,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.9800995024876053E-3"/>
+                  <c:x val="3.9800995024876062E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -327,7 +330,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.9900497512437849E-3"/>
+                  <c:x val="1.9900497512437853E-3"/>
                   <c:y val="-3.3426183844011144E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -338,10 +341,14 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.7140204271123536E-2"/>
+                  <c:y val="-3.7140204271123543E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
             </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
@@ -360,9 +367,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.1</c:v>
                 </c:pt>
@@ -385,9 +392,12 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>NotAmenable</c:v>
                 </c:pt>
               </c:strCache>
@@ -395,10 +405,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$J$13</c:f>
+              <c:f>Sheet1!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -421,9 +431,12 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
@@ -441,7 +454,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.990053269830796E-3"/>
+                  <c:x val="2.6641137499212842E-4"/>
                   <c:y val="-1.1199244399575646E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -468,17 +481,27 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.7044955950047073E-3"/>
+                  <c:y val="-3.7044955950047082E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7235408983974783E-3"/>
+                  <c:y val="-1.4817982380018826E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
               <c:delete val="1"/>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="9"/>
               <c:delete val="1"/>
             </c:dLbl>
             <c:txPr>
@@ -498,9 +521,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.1</c:v>
                 </c:pt>
@@ -523,9 +546,12 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>NotAmenable</c:v>
                 </c:pt>
               </c:strCache>
@@ -533,10 +559,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$J$20</c:f>
+              <c:f>Sheet1!$B$20:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -556,12 +582,15 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -569,12 +598,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="63093760"/>
-        <c:axId val="63103744"/>
+        <c:axId val="72596480"/>
+        <c:axId val="72606464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63093760"/>
+        <c:axId val="72596480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,14 +623,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63103744"/>
+        <c:crossAx val="72606464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63103744"/>
+        <c:axId val="72606464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +638,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63093760"/>
+        <c:crossAx val="72596480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -620,10 +649,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7928226971614134"/>
+          <c:x val="0.79282269716141351"/>
           <c:y val="0.30713185408254384"/>
-          <c:w val="0.20465698055443476"/>
-          <c:h val="0.12642130849201658"/>
+          <c:w val="0.20465698055443479"/>
+          <c:h val="0.1264213084920166"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -644,7 +673,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -654,16 +683,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>77761</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>116880</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>79672</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>430696</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>116147</xdr:rowOff>
+      <xdr:colOff>722498</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -970,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -983,16 +1012,16 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="13" customFormat="1" ht="15.75">
+    <row r="1" spans="1:24" s="13" customFormat="1" ht="15.75">
       <c r="A1" s="9"/>
       <c r="B1" s="9">
         <v>2.1</v>
@@ -1016,50 +1045,53 @@
         <v>3.2</v>
       </c>
       <c r="I1" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="J1" s="14">
         <v>3.4</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>1</v>
-      </c>
       <c r="O1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>1</v>
-      </c>
       <c r="R1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12"/>
+      <c r="U1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="19" customFormat="1" ht="32.25" customHeight="1">
+    <row r="2" spans="1:24" s="19" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
         <v>11</v>
@@ -1083,24 +1115,27 @@
         <v>29</v>
       </c>
       <c r="I2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="16"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="18"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75">
+    <row r="3" spans="1:24" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,54 +1157,55 @@
         <v>3</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="20">
+      <c r="J3" s="1"/>
+      <c r="K3" s="20">
         <v>6</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>45</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <f>SUM(B3:G3)</f>
         <v>34</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>0.96099999999999997</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>74</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>77</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>0.98699999999999999</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>76</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="3">
         <v>77</v>
       </c>
-      <c r="S3" s="4">
-        <f>Q3/R3</f>
+      <c r="T3" s="4">
+        <f>R3/S3</f>
         <v>0.98701298701298701</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>76</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="3">
         <v>77</v>
       </c>
-      <c r="V3" s="5">
-        <f>T3/U3</f>
+      <c r="W3" s="5">
+        <f>U3/V3</f>
         <v>0.98701298701298701</v>
       </c>
-      <c r="W3" s="5">
-        <f>V3-S3</f>
+      <c r="X3" s="5">
+        <f>W3-T3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75">
+    <row r="4" spans="1:24" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1185,50 +1221,51 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3</v>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
       </c>
       <c r="O4" s="3">
         <v>3</v>
       </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="P4" s="3">
         <v>3</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1</v>
       </c>
       <c r="R4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" s="4">
-        <f t="shared" ref="S4:S11" si="0">Q4/R4</f>
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
+      <c r="S4" s="3">
         <v>3</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T11" si="0">R4/S4</f>
+        <v>1</v>
       </c>
       <c r="U4" s="3">
         <v>3</v>
       </c>
-      <c r="V4" s="5">
-        <f>T4/U4</f>
-        <v>1</v>
+      <c r="V4" s="3">
+        <v>3</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" ref="W4:W11" si="1">V4-S4</f>
+        <f>U4/V4</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4:X11" si="1">W4-T4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75">
+    <row r="5" spans="1:24" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1246,51 +1283,52 @@
         <v>1</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="K5" s="1">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f>SUM(B5:G5)</f>
         <v>9</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>0.61899999999999999</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>52</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>84</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>0.61899999999999999</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>52</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>84</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="0"/>
         <v>0.61904761904761907</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>77</v>
       </c>
-      <c r="U5" s="3">
+      <c r="V5" s="3">
         <v>84</v>
       </c>
-      <c r="V5" s="5">
-        <f>T5/U5</f>
+      <c r="W5" s="5">
+        <f>U5/V5</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <f t="shared" si="1"/>
         <v>0.29761904761904756</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75">
+    <row r="6" spans="1:24" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1308,51 +1346,52 @@
         <v>1</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="K6" s="1">
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
         <v>9</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f>SUM(B6:G6)</f>
         <v>9</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>0.60709999999999997</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>51</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>84</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>0.60709999999999997</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>51</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>84</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="0"/>
         <v>0.6071428571428571</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>77</v>
       </c>
-      <c r="U6" s="3">
+      <c r="V6" s="3">
         <v>84</v>
       </c>
-      <c r="V6" s="5">
-        <f t="shared" ref="V6:V11" si="2">T6/U6</f>
+      <c r="W6" s="5">
+        <f t="shared" ref="W6:W11" si="2">U6/V6</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <f t="shared" si="1"/>
         <v>0.30952380952380953</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75">
+    <row r="7" spans="1:24" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1368,54 +1407,55 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="20">
+      <c r="J7" s="1"/>
+      <c r="K7" s="20">
         <v>2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" ref="L7:L10" si="3">SUM(B7:I7)</f>
+      <c r="M7" s="1">
+        <f t="shared" ref="M7:M10" si="3">SUM(B7:J7)</f>
         <v>3</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>0.84619999999999995</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>22</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>26</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>0.84619999999999995</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>22</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>26</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="T7" s="3">
-        <v>26</v>
-      </c>
       <c r="U7" s="3">
         <v>26</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="3">
+        <v>26</v>
+      </c>
+      <c r="W7" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W7" s="5">
+      <c r="X7" s="5">
         <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75">
+    <row r="8" spans="1:24" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1427,44 +1467,45 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="20">
+      <c r="J8" s="2"/>
+      <c r="K8" s="20">
         <v>2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>2</v>
       </c>
-      <c r="L8" s="15">
+      <c r="M8" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8">
-        <v>6</v>
+      <c r="N8" s="7">
+        <v>1</v>
       </c>
       <c r="O8" s="8">
         <v>6</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="8">
+        <v>6</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="4" t="e">
+      <c r="S8" s="3"/>
+      <c r="T8" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="5" t="e">
+      <c r="V8" s="2"/>
+      <c r="W8" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="5" t="e">
+      <c r="X8" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75">
+    <row r="9" spans="1:24" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1480,51 +1521,52 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="1">
+      <c r="J9" s="1"/>
+      <c r="L9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f>SUM(B9:G9)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>0.43059999999999998</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>72</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>0.43059999999999998</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>72</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>65</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>72</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <f t="shared" si="2"/>
         <v>0.90277777777777779</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <f t="shared" si="1"/>
         <v>0.47222222222222221</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75">
+    <row r="10" spans="1:24" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1536,44 +1578,45 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="20">
+      <c r="J10" s="2"/>
+      <c r="K10" s="20">
         <v>2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>2</v>
       </c>
-      <c r="L10" s="15">
+      <c r="M10" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="8">
-        <v>6</v>
+      <c r="N10" s="7">
+        <v>1</v>
       </c>
       <c r="O10" s="8">
         <v>6</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="8">
+        <v>6</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="4" t="e">
+      <c r="S10" s="3"/>
+      <c r="T10" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="5" t="e">
+      <c r="V10" s="2"/>
+      <c r="W10" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="5" t="e">
+      <c r="X10" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75">
+    <row r="11" spans="1:24" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,54 +1631,55 @@
         <v>5</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
         <v>5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f>SUM(B11:G11)</f>
         <v>7</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>0.91669999999999996</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>44</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>48</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>0.9375</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>46</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>48</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <f t="shared" si="0"/>
         <v>0.95833333333333337</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>46</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>48</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <f t="shared" si="2"/>
         <v>0.95833333333333337</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="22" customFormat="1">
+    <row r="13" spans="1:24" s="22" customFormat="1">
       <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
@@ -1652,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="22">
-        <f t="shared" ref="E13:K13" ca="1" si="4">SUM(E3:E18)</f>
+        <f t="shared" ref="E13:L13" ca="1" si="4">SUM(E3:E18)</f>
         <v>1</v>
       </c>
       <c r="F13" s="22">
@@ -1669,22 +1713,26 @@
       </c>
       <c r="I13" s="22">
         <f>SUM(I3:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <f>SUM(J3:J11)</f>
         <v>5</v>
       </c>
-      <c r="J13" s="20">
+      <c r="K13" s="20">
         <f t="shared" ca="1" si="4"/>
         <v>12</v>
       </c>
-      <c r="K13" s="22">
+      <c r="L13" s="22">
         <f t="shared" ca="1" si="4"/>
         <v>90</v>
       </c>
-      <c r="L13" s="22">
-        <f>SUM(L3:L11)</f>
+      <c r="M13" s="22">
+        <f>SUM(M3:M11)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75">
+    <row r="15" spans="1:24" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1697,27 +1745,30 @@
         <v>5</v>
       </c>
       <c r="H15" s="1">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
         <f>SUM(B15:G15)</f>
         <v>5</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="5"/>
+      <c r="V15" s="3"/>
       <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75">
+    <row r="16" spans="1:24" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1730,27 +1781,30 @@
         <v>5</v>
       </c>
       <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
         <f>SUM(B16:G16)</f>
         <v>5</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="4"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="5"/>
+      <c r="V16" s="3"/>
       <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75">
+    <row r="17" spans="1:24" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1765,27 +1819,30 @@
         <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
-        <f>SUM(B17:I17)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <f>SUM(B17:J17)</f>
         <v>8</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="5"/>
+      <c r="V17" s="3"/>
       <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75">
+    <row r="18" spans="1:24" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1801,36 +1858,37 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <f>SUM(B18:I18)</f>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <f>SUM(B18:J18)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="5"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="L19" s="1">
-        <f>SUM(B19:I19)</f>
+      <c r="M19" s="1">
+        <f>SUM(B19:J19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="22" customFormat="1">
+    <row r="20" spans="1:24" s="22" customFormat="1">
       <c r="A20" s="21" t="s">
         <v>31</v>
       </c>
@@ -1839,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="22">
-        <f t="shared" ref="C20:K20" si="5">SUM(C15:C18)</f>
+        <f t="shared" ref="C20:L20" si="5">SUM(C15:C18)</f>
         <v>0</v>
       </c>
       <c r="D20" s="22">
@@ -1860,26 +1918,30 @@
       </c>
       <c r="H20" s="22">
         <f>SUM(H15:H18)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I20" s="22">
+        <f>SUM(I15:I18)</f>
+        <v>6</v>
+      </c>
+      <c r="J20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20" s="20">
+      <c r="K20" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K20" s="22">
+      <c r="L20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="22">
+      <c r="M20" s="22">
         <f>SUM(B20:G20)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="22" customFormat="1">
+    <row r="22" spans="1:24" s="22" customFormat="1">
       <c r="A22" s="21" t="s">
         <v>33</v>
       </c>
@@ -1888,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="22">
-        <f t="shared" ref="C22:K22" si="6">SUM(C3:C11,C15:C18)</f>
+        <f t="shared" ref="C22:L22" si="6">SUM(C3:C11,C15:C18)</f>
         <v>45</v>
       </c>
       <c r="D22" s="22">
@@ -1909,21 +1971,25 @@
       </c>
       <c r="H22" s="22">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="J22" s="20">
+      <c r="K22" s="20">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="K22" s="22">
+      <c r="L22" s="22">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="L22" s="22">
+      <c r="M22" s="22">
         <f>SUM(B22:G22)</f>
         <v>83</v>
       </c>
